--- a/src/test/resources/ExcelData/ds-algologin.xlsx
+++ b/src/test/resources/ExcelData/ds-algologin.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -22,19 +22,13 @@
     <t>expectedmessage</t>
   </si>
   <si>
-    <t>sangee109</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>Please check your Password</t>
-  </si>
-  <si>
-    <t>Nithila031212</t>
-  </si>
-  <si>
-    <t>Please check your Username</t>
+    <t>dddd109</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>nithi312</t>
   </si>
   <si>
     <t>sangee</t>
@@ -43,7 +37,7 @@
     <t>Nithila</t>
   </si>
   <si>
-    <t>Invalid username and password</t>
+    <t>Invalid Username and Password</t>
   </si>
   <si>
     <t>You are logged in</t>
@@ -356,33 +350,29 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -390,10 +380,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
